--- a/public/files/basic/LlakaScript.xlsx
+++ b/public/files/basic/LlakaScript.xlsx
@@ -5,10 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Promotion" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Config" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Info" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="schedules" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="staff" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,11 +25,62 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="66">
   <si>
     <t xml:space="preserve">Menu_Title</t>
   </si>
   <si>
+    <t xml:space="preserve">Item_Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">highlight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lasagna.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasagna Nico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asaña clásica con carne y salsa bechamel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasagna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segunda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cucina Italiana</t>
+  </si>
+  <si>
     <t xml:space="preserve">Profile_Type</t>
   </si>
   <si>
@@ -37,52 +93,136 @@
     <t xml:space="preserve">Background_Image</t>
   </si>
   <si>
-    <t xml:space="preserve">Item_Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cucina Italiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cocina Italiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#9b1c31</t>
+    <t xml:space="preserve">profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizza Tropical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profile_ten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#33ffff</t>
   </si>
   <si>
     <t xml:space="preserve">#d2a700</t>
   </si>
   <si>
-    <t xml:space="preserve">/images/italia.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/images/lasagna.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasagna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asaña clásica con carne y salsa bechamel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.50</t>
+    <t xml:space="preserve">fondo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizza Salchipapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizza Cuatro Quesos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizza Cuatro Variada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizza con Palmitos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IconBrand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">italia.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icono.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whatsapp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">todo@gmail,com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http:algo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calle libertad 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">servicehours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lunes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:00hs a 12:30 hs, 20:00hs a 00:30 hs  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">martes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:00hs a 12:30 hs, 20:00hs a 00:30 hs  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">miércoles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jueves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">viernes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sábado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nico.contigliani@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedro.contigliani@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">employees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">macarena.contigliani@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -92,7 +232,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -124,6 +264,20 @@
       <u val="single"/>
       <sz val="9"/>
       <name val="arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -177,7 +331,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -198,6 +352,34 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -215,24 +397,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:AMJ34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="4:4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="45.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.87"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="60.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="12" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="43.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="60.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -263,117 +444,574 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="AMF1" s="0"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AMF2" s="0"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AMF3" s="0"/>
+      <c r="AMG3" s="0"/>
+      <c r="AMH3" s="0"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AMF4" s="0"/>
+      <c r="AMG4" s="0"/>
+      <c r="AMH4" s="0"/>
+      <c r="AMI4" s="0"/>
+      <c r="AMJ4" s="0"/>
+    </row>
+    <row r="5" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="D5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AMF5" s="0"/>
+      <c r="AMG5" s="0"/>
+      <c r="AMH5" s="0"/>
+      <c r="AMI5" s="0"/>
+      <c r="AMJ5" s="0"/>
+    </row>
+    <row r="6" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AMF6" s="0"/>
+      <c r="AMG6" s="0"/>
+      <c r="AMH6" s="0"/>
+      <c r="AMI6" s="0"/>
+      <c r="AMJ6" s="0"/>
+    </row>
+    <row r="7" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AMF7" s="0"/>
+      <c r="AMG7" s="0"/>
+      <c r="AMH7" s="0"/>
+      <c r="AMI7" s="0"/>
+      <c r="AMJ7" s="0"/>
+    </row>
+    <row r="8" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="D8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AMF8" s="0"/>
+      <c r="AMG8" s="0"/>
+      <c r="AMH8" s="0"/>
+      <c r="AMI8" s="0"/>
+      <c r="AMJ8" s="0"/>
+    </row>
+    <row r="9" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AMF9" s="0"/>
+      <c r="AMG9" s="0"/>
+      <c r="AMH9" s="0"/>
+      <c r="AMI9" s="0"/>
+      <c r="AMJ9" s="0"/>
+    </row>
+    <row r="10" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="D10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AMF10" s="0"/>
+      <c r="AMG10" s="0"/>
+      <c r="AMH10" s="0"/>
+      <c r="AMI10" s="0"/>
+      <c r="AMJ10" s="0"/>
+    </row>
+    <row r="11" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AMF11" s="0"/>
+      <c r="AMG11" s="0"/>
+      <c r="AMH11" s="0"/>
+      <c r="AMI11" s="0"/>
+      <c r="AMJ11" s="0"/>
+    </row>
+    <row r="12" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="D12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AMF12" s="0"/>
+      <c r="AMG12" s="0"/>
+      <c r="AMH12" s="0"/>
+      <c r="AMI12" s="0"/>
+      <c r="AMJ12" s="0"/>
+    </row>
+    <row r="13" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AMF13" s="0"/>
+      <c r="AMG13" s="0"/>
+      <c r="AMH13" s="0"/>
+      <c r="AMI13" s="0"/>
+      <c r="AMJ13" s="0"/>
+    </row>
+    <row r="14" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AMF14" s="0"/>
+      <c r="AMG14" s="0"/>
+      <c r="AMH14" s="0"/>
+      <c r="AMI14" s="0"/>
+      <c r="AMJ14" s="0"/>
+    </row>
+    <row r="15" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="D15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AMF15" s="0"/>
+      <c r="AMG15" s="0"/>
+      <c r="AMH15" s="0"/>
+      <c r="AMI15" s="0"/>
+      <c r="AMJ15" s="0"/>
+    </row>
+    <row r="16" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AMF16" s="0"/>
+      <c r="AMG16" s="0"/>
+      <c r="AMH16" s="0"/>
+      <c r="AMI16" s="0"/>
+      <c r="AMJ16" s="0"/>
+    </row>
+    <row r="17" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AMF17" s="0"/>
+      <c r="AMG17" s="0"/>
+      <c r="AMH17" s="0"/>
+      <c r="AMI17" s="0"/>
+      <c r="AMJ17" s="0"/>
+    </row>
+    <row r="18" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AMF18" s="0"/>
+      <c r="AMG18" s="0"/>
+      <c r="AMH18" s="0"/>
+      <c r="AMI18" s="0"/>
+      <c r="AMJ18" s="0"/>
+    </row>
+    <row r="19" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AMF19" s="0"/>
+      <c r="AMG19" s="0"/>
+      <c r="AMH19" s="0"/>
+      <c r="AMI19" s="0"/>
+      <c r="AMJ19" s="0"/>
+    </row>
+    <row r="20" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AMF20" s="0"/>
+      <c r="AMG20" s="0"/>
+      <c r="AMH20" s="0"/>
+      <c r="AMI20" s="0"/>
+      <c r="AMJ20" s="0"/>
+    </row>
+    <row r="21" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AMF21" s="0"/>
+      <c r="AMG21" s="0"/>
+      <c r="AMH21" s="0"/>
+      <c r="AMI21" s="0"/>
+      <c r="AMJ21" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -384,4 +1022,616 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="40.15"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.89"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="7"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.96"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="n">
+        <v>54900000</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="8" t="n">
+        <v>5492222222</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http:algo.com"/>
+    <hyperlink ref="D2" r:id="rId2" display="http:algo.com"/>
+    <hyperlink ref="E2" r:id="rId3" display="http:algo.com"/>
+    <hyperlink ref="F2" r:id="rId4" display="http:algo.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.23"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.48"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="nico.contigliani@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="pedro.contigliani@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId3" display="macarena.contigliani@gmail.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/public/files/basic/LlakaScript.xlsx
+++ b/public/files/basic/LlakaScript.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="175">
   <si>
     <t xml:space="preserve">Menu_Title</t>
   </si>
@@ -54,87 +54,381 @@
     <t xml:space="preserve">status</t>
   </si>
   <si>
+    <t xml:space="preserve">extra</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pizza</t>
   </si>
   <si>
     <t xml:space="preserve">lasagna.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">primera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasagna Nico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asaña clásica con carne y salsa bechamel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasagna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">segunda</t>
+    <t xml:space="preserve">Pastas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasagna Clásica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasaña clásica con carne y salsa bechamel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$17.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queso_parmesano:2000,Salsa_extra:1500,Jalapeños:1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spaghetti_carbonara.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spaghetti Carbonara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spaghetti con salsa cremosa de huevo y panceta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$15.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queso_parmesano:2000,Salsa_extra:1500,Jalapeños:1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fettuccine_alfredo.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fettuccine Alfredo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fettuccine con salsa de crema y queso parmesano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$16.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queso_parmesano:2000,Salsa_extra:1500,Jalapeños:1002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ravioli.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ravioli de Espinaca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ravioli relleno de espinaca y ricotta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$16.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queso_parmesano:2000,Salsa_extra:1500,Jalapeños:1003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">penne_arrabbiata.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penne Arrabbiata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penne con salsa picante de tomate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$14.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queso_parmesano:2000,Salsa_extra:1500,Jalapeños:1004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">margherita.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizzas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizza Margherita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizza clásica con tomate, mozzarella y albahaca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$14.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queso_extra:2000,Aceitunas:1500,Albahaca:1000</t>
   </si>
   <si>
     <t xml:space="preserve">Cucina Italiana</t>
   </si>
   <si>
-    <t xml:space="preserve">Profile_Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary_Color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secondary_color</t>
+    <t xml:space="preserve">pepperoni.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizza Pepperoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizza con salsa de tomate, mozzarella y pepperoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$15.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queso_extra:2000,Aceitunas:1500,Albahaca:1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quattro_formaggi.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizza Quattro Formaggi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizza con cuatro quesos: mozzarella, gorgonzola, parmesano y provolone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$16.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queso_extra:2000,Aceitunas:1500,Albahaca:1002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prosciutto.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizza Prosciutto e Rucola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizza con jamón crudo, rúcula y parmesano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$17.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queso_extra:2000,Aceitunas:1500,Albahaca:1003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caesar.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensaladas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensalada César</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lechuga romana, crutones, parmesano y aderezo César</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$12.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queso_extra:2000,Aceitunas:1500,Albahaca:1004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">greek_salad.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensalada Griega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomate, pepino, cebolla, aceitunas y queso feta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$13.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queso_extra:2000,Aceitunas:1500,Albahaca:1005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caprese.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensalada Caprese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomate, mozzarella fresca y albahaca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$11.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queso_extra:2000,Aceitunas:1500,Albahaca:1006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minestrone.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sopas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minestrone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sopa de verduras italiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$9.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queso_extra:2000,Aceitunas:1500,Albahaca:1007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zuppa_toscana.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zuppa Toscana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sopa cremosa con salchicha italiana y col rizada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$10.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queso_extra:2000,Aceitunas:1500,Albahaca:1008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiramisu.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiramisú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postre italiano de café con capas de bizcocho y crema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$8.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queso_extra:2000,Aceitunas:1500,Albahaca:1009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">panna_cotta.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panna Cotta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postre cremoso con salsa de frutos rojos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$7.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queso_extra:2000,Aceitunas:1500,Albahaca:1010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gelato.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gelato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helado italiano artesanal (varios sabores)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$6.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queso_extra:2000,Aceitunas:1500,Albahaca:1011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bruschetta.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aperitivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruschetta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pan tostado con tomate, ajo y albahaca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$8.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queso_extra:2000,Aceitunas:1500,Albahaca:1012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calamari.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calamari Fritti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calamares fritos con salsa marinara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$11.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queso_extra:2000,Aceitunas:1500,Albahaca:1013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">antipasto.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antipasto Misto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selección de embutidos y quesos italianos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queso_extra:2000,Aceitunas:1500,Albahaca:1014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">osso_buco.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carnes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osso Buco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osobuco de ternera con risotto a la milanesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$24.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queso_extra:2000,Aceitunas:1500,Albahaca:1015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saltimbocca.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saltimbocca alla Romana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escalopes de ternera con jamón y salvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$22.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queso_extra:2000,Aceitunas:1500,Albahaca:1016</t>
   </si>
   <si>
     <t xml:space="preserve">Background_Image</t>
   </si>
   <si>
-    <t xml:space="preserve">profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pizza Tropical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">profile_ten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#33ffff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#d2a700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fondo.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pizza Salchipapas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pizza Cuatro Quesos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pizza Cuatro Variada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pizza con Palmitos</t>
-  </si>
-  <si>
     <t xml:space="preserve">IconBrand</t>
   </si>
   <si>
+    <t xml:space="preserve">whoDoOrder</t>
+  </si>
+  <si>
     <t xml:space="preserve">italia.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">icono.png</t>
   </si>
   <si>
+    <t xml:space="preserve">staff</t>
+  </si>
+  <si>
     <t xml:space="preserve">phone</t>
   </si>
   <si>
@@ -159,6 +453,24 @@
     <t xml:space="preserve">ubication</t>
   </si>
   <si>
+    <t xml:space="preserve">delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">takeaway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chatboot</t>
+  </si>
+  <si>
     <t xml:space="preserve">todo@gmail,com</t>
   </si>
   <si>
@@ -166,6 +478,21 @@
   </si>
   <si>
     <t xml:space="preserve">calle libertad 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consultar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reservas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> efectivo y transferencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false</t>
   </si>
   <si>
     <t xml:space="preserve">day</t>
@@ -232,7 +559,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -263,7 +590,26 @@
     <font>
       <u val="single"/>
       <sz val="9"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="9"/>
       <name val="arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -271,6 +617,13 @@
       <u val="single"/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -331,7 +684,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -356,6 +709,30 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -368,7 +745,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -376,7 +753,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -399,20 +776,21 @@
   </sheetPr>
   <dimension ref="A1:AMJ34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J31" activeCellId="0" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="43.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="60.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="38.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="97.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="55.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -444,6 +822,9 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="AMF1" s="0"/>
       <c r="AMG1" s="0"/>
       <c r="AMH1" s="0"/>
@@ -452,25 +833,28 @@
     </row>
     <row r="2" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AMF2" s="0"/>
       <c r="AMG2" s="0"/>
@@ -479,26 +863,29 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
+      <c r="A3" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="AMF3" s="0"/>
       <c r="AMG3" s="0"/>
@@ -507,26 +894,29 @@
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
+      <c r="A4" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="AMF4" s="0"/>
       <c r="AMG4" s="0"/>
@@ -535,26 +925,29 @@
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
+      <c r="A5" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="AMF5" s="0"/>
       <c r="AMG5" s="0"/>
@@ -562,27 +955,30 @@
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
+    <row r="6" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="AMF6" s="0"/>
       <c r="AMG6" s="0"/>
@@ -592,25 +988,28 @@
     </row>
     <row r="7" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="AMF7" s="0"/>
       <c r="AMG7" s="0"/>
@@ -619,26 +1018,29 @@
       <c r="AMJ7" s="0"/>
     </row>
     <row r="8" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
+      <c r="A8" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>14</v>
+        <v>44</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="AMF8" s="0"/>
       <c r="AMG8" s="0"/>
@@ -648,25 +1050,28 @@
     </row>
     <row r="9" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>14</v>
+        <v>49</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="AMF9" s="0"/>
       <c r="AMG9" s="0"/>
@@ -676,25 +1081,28 @@
     </row>
     <row r="10" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>14</v>
+        <v>54</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="AMF10" s="0"/>
       <c r="AMG10" s="0"/>
@@ -702,27 +1110,30 @@
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>17</v>
+    <row r="11" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>14</v>
+        <v>63</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="AMF11" s="0"/>
       <c r="AMG11" s="0"/>
@@ -732,25 +1143,28 @@
     </row>
     <row r="12" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="D12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>14</v>
+      <c r="E12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="AMF12" s="0"/>
       <c r="AMG12" s="0"/>
@@ -759,26 +1173,29 @@
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>17</v>
+      <c r="A13" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>14</v>
+        <v>70</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="AMF13" s="0"/>
       <c r="AMG13" s="0"/>
@@ -788,25 +1205,28 @@
     </row>
     <row r="14" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>14</v>
+      <c r="E14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="AMF14" s="0"/>
       <c r="AMG14" s="0"/>
@@ -816,25 +1236,28 @@
     </row>
     <row r="15" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="5" t="n">
         <v>14</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="AMF15" s="0"/>
       <c r="AMG15" s="0"/>
@@ -842,27 +1265,30 @@
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>17</v>
+    <row r="16" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>14</v>
+        <v>90</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="AMF16" s="0"/>
       <c r="AMG16" s="0"/>
@@ -870,27 +1296,30 @@
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>9</v>
+    <row r="17" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>14</v>
+        <v>95</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="AMF17" s="0"/>
       <c r="AMG17" s="0"/>
@@ -898,27 +1327,30 @@
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+    <row r="18" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>14</v>
+        <v>100</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="AMF18" s="0"/>
       <c r="AMG18" s="0"/>
@@ -926,27 +1358,30 @@
       <c r="AMI18" s="0"/>
       <c r="AMJ18" s="0"/>
     </row>
-    <row r="19" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>17</v>
+    <row r="19" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>14</v>
+        <v>106</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="AMF19" s="0"/>
       <c r="AMG19" s="0"/>
@@ -954,27 +1389,30 @@
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>17</v>
+    <row r="20" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>14</v>
+        <v>111</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="AMF20" s="0"/>
       <c r="AMG20" s="0"/>
@@ -982,27 +1420,30 @@
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>17</v>
+    <row r="21" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="AMF21" s="0"/>
       <c r="AMG21" s="0"/>
@@ -1010,8 +1451,54 @@
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="5"/>
+      <c r="B34" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1029,13 +1516,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.01"/>
@@ -1047,239 +1534,473 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="40.15"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AMF1" s="10"/>
+      <c r="AMG1" s="10"/>
+      <c r="AMH1" s="10"/>
+      <c r="AMI1" s="10"/>
+      <c r="AMJ1" s="10"/>
+    </row>
+    <row r="2" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AMF2" s="10"/>
+      <c r="AMG2" s="10"/>
+      <c r="AMH2" s="10"/>
+      <c r="AMI2" s="10"/>
+      <c r="AMJ2" s="10"/>
+    </row>
+    <row r="3" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="AMF3" s="10"/>
+      <c r="AMG3" s="10"/>
+      <c r="AMH3" s="10"/>
+      <c r="AMI3" s="10"/>
+      <c r="AMJ3" s="10"/>
+    </row>
+    <row r="4" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AMF4" s="10"/>
+      <c r="AMG4" s="10"/>
+      <c r="AMH4" s="10"/>
+      <c r="AMI4" s="10"/>
+      <c r="AMJ4" s="10"/>
+    </row>
+    <row r="5" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AMF5" s="10"/>
+      <c r="AMG5" s="10"/>
+      <c r="AMH5" s="10"/>
+      <c r="AMI5" s="10"/>
+      <c r="AMJ5" s="10"/>
+    </row>
+    <row r="6" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="E6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AMF6" s="10"/>
+      <c r="AMG6" s="10"/>
+      <c r="AMH6" s="10"/>
+      <c r="AMI6" s="10"/>
+      <c r="AMJ6" s="10"/>
+    </row>
+    <row r="7" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="E7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AMF7" s="10"/>
+      <c r="AMG7" s="10"/>
+      <c r="AMH7" s="10"/>
+      <c r="AMI7" s="10"/>
+      <c r="AMJ7" s="10"/>
+    </row>
+    <row r="8" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="E8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AMF8" s="10"/>
+      <c r="AMG8" s="10"/>
+      <c r="AMH8" s="10"/>
+      <c r="AMI8" s="10"/>
+      <c r="AMJ8" s="10"/>
+    </row>
+    <row r="9" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="4" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AMF9" s="10"/>
+      <c r="AMG9" s="10"/>
+      <c r="AMH9" s="10"/>
+      <c r="AMI9" s="10"/>
+      <c r="AMJ9" s="10"/>
+    </row>
+    <row r="10" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AMF10" s="10"/>
+      <c r="AMG10" s="10"/>
+      <c r="AMH10" s="10"/>
+      <c r="AMI10" s="10"/>
+      <c r="AMJ10" s="10"/>
+    </row>
+    <row r="11" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="E11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AMF11" s="10"/>
+      <c r="AMG11" s="10"/>
+      <c r="AMH11" s="10"/>
+      <c r="AMI11" s="10"/>
+      <c r="AMJ11" s="10"/>
+    </row>
+    <row r="12" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="AMF12" s="10"/>
+      <c r="AMG12" s="10"/>
+      <c r="AMH12" s="10"/>
+      <c r="AMI12" s="10"/>
+      <c r="AMJ12" s="10"/>
+    </row>
+    <row r="13" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="AMF13" s="10"/>
+      <c r="AMG13" s="10"/>
+      <c r="AMH13" s="10"/>
+      <c r="AMI13" s="10"/>
+      <c r="AMJ13" s="10"/>
+    </row>
+    <row r="14" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="AMF14" s="10"/>
+      <c r="AMG14" s="10"/>
+      <c r="AMH14" s="10"/>
+      <c r="AMI14" s="10"/>
+      <c r="AMJ14" s="10"/>
+    </row>
+    <row r="15" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="AMF15" s="10"/>
+      <c r="AMG15" s="10"/>
+      <c r="AMH15" s="10"/>
+      <c r="AMI15" s="10"/>
+      <c r="AMJ15" s="10"/>
+    </row>
+    <row r="16" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="AMF16" s="10"/>
+      <c r="AMG16" s="10"/>
+      <c r="AMH16" s="10"/>
+      <c r="AMI16" s="10"/>
+      <c r="AMJ16" s="10"/>
+    </row>
+    <row r="17" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="AMF17" s="10"/>
+      <c r="AMG17" s="10"/>
+      <c r="AMH17" s="10"/>
+      <c r="AMI17" s="10"/>
+      <c r="AMJ17" s="10"/>
+    </row>
+    <row r="18" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="AMF18" s="10"/>
+      <c r="AMG18" s="10"/>
+      <c r="AMH18" s="10"/>
+      <c r="AMI18" s="10"/>
+      <c r="AMJ18" s="10"/>
+    </row>
+    <row r="19" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="AMF19" s="10"/>
+      <c r="AMG19" s="10"/>
+      <c r="AMH19" s="10"/>
+      <c r="AMI19" s="10"/>
+      <c r="AMJ19" s="10"/>
+    </row>
+    <row r="20" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="AMF20" s="10"/>
+      <c r="AMG20" s="10"/>
+      <c r="AMH20" s="10"/>
+      <c r="AMI20" s="10"/>
+      <c r="AMJ20" s="10"/>
+    </row>
+    <row r="21" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="AMF21" s="10"/>
+      <c r="AMG21" s="10"/>
+      <c r="AMH21" s="10"/>
+      <c r="AMI21" s="10"/>
+      <c r="AMJ21" s="10"/>
+    </row>
+    <row r="22" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1297,35 +2018,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>21</v>
+      <c r="A1" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>33</v>
+        <v>129</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>35</v>
+      <c r="A2" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="7"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I19" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1343,13 +2074,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.79"/>
@@ -1358,111 +2089,146 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="22.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="A1" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="14" t="n">
         <v>54900000</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="8" t="n">
+      <c r="B2" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="14" t="n">
         <v>5492222222</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="H2" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1492,73 +2258,73 @@
       <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>48</v>
+      <c r="A1" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>50</v>
+      <c r="A2" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>52</v>
+      <c r="A3" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>52</v>
+      <c r="A4" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>52</v>
+      <c r="A5" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>52</v>
+      <c r="A6" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>52</v>
+      <c r="A7" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>52</v>
+      <c r="A8" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1579,45 +2345,45 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.48"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>61</v>
+        <v>169</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>63</v>
+        <v>171</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>65</v>
+        <v>173</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
